--- a/star-legend/checklist.xlsx
+++ b/star-legend/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/star-legend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE9337FF-7C20-AB4F-98B2-158E62E64A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100EA05F-6160-C84A-91C1-BC5F57C2786A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{613B18FD-75E4-ED49-A4DA-11003E448DF6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>year</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>space_fleet.jpg</t>
+  </si>
+  <si>
+    <t>エイジ・オブ・ギャラクシー</t>
+  </si>
+  <si>
+    <t>The Age of the Galaxy</t>
+  </si>
+  <si>
+    <t>age_of_galaxy.jpg</t>
   </si>
 </sst>
 </file>
@@ -452,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D458E5B9-B5D1-0D41-A9FC-F44C2447DA99}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,6 +554,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2014</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
